--- a/Shablon/34401A.xlsx
+++ b/Shablon/34401A.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$107</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -482,11 +467,14 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1027,88 +1015,79 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,44 +1100,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1467,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,81 +1470,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="A3" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
+      <c r="A7" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1571,29 +1551,29 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
+      <c r="A9" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="A10" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
@@ -1601,11 +1581,11 @@
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="A11" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -1613,13 +1593,13 @@
       <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
+      <c r="A12" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -1627,13 +1607,13 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="A13" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -1641,13 +1621,13 @@
       <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
+      <c r="A14" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -1655,13 +1635,13 @@
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
+      <c r="A15" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -1680,99 +1660,99 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="104"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="104"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="104"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="107"/>
+      <c r="F21" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="G21" s="104"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="G22" s="104"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="82"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1787,7 +1767,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -1809,17 +1789,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1832,7 +1812,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1844,52 +1824,52 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="91" t="s">
+      <c r="A33" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="115"/>
+      <c r="B33" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="87"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>112</v>
+      <c r="A35" s="91" t="s">
+        <v>107</v>
       </c>
       <c r="B35" s="14">
         <v>100</v>
       </c>
-      <c r="C35" s="89" t="s">
-        <v>109</v>
+      <c r="C35" s="80" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="89" t="s">
-        <v>109</v>
+        <v>38</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>104</v>
       </c>
       <c r="F35" s="64">
         <f>100-0.0085</f>
@@ -1902,15 +1882,15 @@
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="14">
         <v>-100</v>
       </c>
-      <c r="C36" s="90"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="90"/>
+        <v>39</v>
+      </c>
+      <c r="E36" s="81"/>
       <c r="F36" s="64">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
@@ -1922,20 +1902,20 @@
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
-        <v>113</v>
+      <c r="A37" s="91" t="s">
+        <v>108</v>
       </c>
       <c r="B37" s="14">
         <v>1</v>
       </c>
-      <c r="C37" s="89" t="s">
-        <v>110</v>
+      <c r="C37" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="117" t="s">
-        <v>110</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>105</v>
       </c>
       <c r="F37" s="71">
         <f>1-0.000047</f>
@@ -1948,15 +1928,15 @@
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="14">
         <v>-1</v>
       </c>
-      <c r="C38" s="95"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="118"/>
+        <v>41</v>
+      </c>
+      <c r="E38" s="84"/>
       <c r="F38" s="70">
         <f>-1-0.000047</f>
         <v>-1.0000469999999999</v>
@@ -1968,17 +1948,17 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
-        <v>114</v>
+      <c r="A39" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="B39" s="14">
         <v>10</v>
       </c>
-      <c r="C39" s="95"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="118"/>
+        <v>42</v>
+      </c>
+      <c r="E39" s="84"/>
       <c r="F39" s="64">
         <f>10-0.0004</f>
         <v>9.9995999999999992</v>
@@ -1990,15 +1970,15 @@
       <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="14">
         <v>-10</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="118"/>
+        <v>43</v>
+      </c>
+      <c r="E40" s="84"/>
       <c r="F40" s="64">
         <f>-10-0.0004</f>
         <v>-10.000400000000001</v>
@@ -2010,17 +1990,17 @@
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
-        <v>115</v>
+      <c r="A41" s="91" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="14">
         <v>100</v>
       </c>
-      <c r="C41" s="95"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="118"/>
+        <v>44</v>
+      </c>
+      <c r="E41" s="84"/>
       <c r="F41" s="64">
         <f>100-0.0051</f>
         <v>99.994900000000001</v>
@@ -2032,15 +2012,15 @@
       <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="14">
         <v>-100</v>
       </c>
-      <c r="C42" s="95"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="118"/>
+        <v>45</v>
+      </c>
+      <c r="E42" s="84"/>
       <c r="F42" s="64">
         <f>-100-0.0051</f>
         <v>-100.0051</v>
@@ -2052,17 +2032,17 @@
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="107" t="s">
-        <v>116</v>
+      <c r="A43" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="14">
         <v>1000</v>
       </c>
-      <c r="C43" s="95"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="118"/>
+        <v>46</v>
+      </c>
+      <c r="E43" s="84"/>
       <c r="F43" s="65">
         <f>1000-0.055</f>
         <v>999.94500000000005</v>
@@ -2074,15 +2054,15 @@
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="14">
         <v>-1000</v>
       </c>
-      <c r="C44" s="90"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="119"/>
+        <v>47</v>
+      </c>
+      <c r="E44" s="85"/>
       <c r="F44" s="65">
         <f>-1000-0.055</f>
         <v>-1000.0549999999999</v>
@@ -2095,7 +2075,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2106,69 +2086,69 @@
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="92"/>
-      <c r="G47" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="115"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
+      <c r="A47" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="87"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="94"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="108"/>
+        <v>124</v>
+      </c>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
-        <v>112</v>
+      <c r="A49" s="113" t="s">
+        <v>107</v>
       </c>
       <c r="B49" s="51">
         <v>10</v>
       </c>
-      <c r="C49" s="79" t="s">
-        <v>109</v>
+      <c r="C49" s="88" t="s">
+        <v>104</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>109</v>
+        <v>48</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>104</v>
       </c>
       <c r="G49" s="65">
         <f>10-0.046</f>
@@ -2178,7 +2158,7 @@
         <f>10+0.046</f>
         <v>10.045999999999999</v>
       </c>
-      <c r="I49" s="102"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
       <c r="L49" s="56"/>
@@ -2186,18 +2166,18 @@
       <c r="N49" s="57"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="79">
+      <c r="A50" s="114"/>
+      <c r="B50" s="88">
         <v>100</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="101"/>
+        <v>49</v>
+      </c>
+      <c r="F50" s="89"/>
       <c r="G50" s="74">
         <f>100-0.1</f>
         <v>99.9</v>
@@ -2206,24 +2186,24 @@
         <f>100+0.1</f>
         <v>100.1</v>
       </c>
-      <c r="I50" s="102"/>
-      <c r="J50" s="103"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="99"/>
       <c r="K50" s="57"/>
       <c r="L50" s="56"/>
       <c r="M50" s="56"/>
       <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="80"/>
+        <v>50</v>
+      </c>
+      <c r="F51" s="90"/>
       <c r="G51" s="16">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2232,31 +2212,31 @@
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
-      <c r="I51" s="102"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="99"/>
       <c r="K51" s="57"/>
       <c r="L51" s="56"/>
       <c r="M51" s="56"/>
       <c r="N51" s="57"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="100">
+      <c r="A52" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="117">
         <v>1</v>
       </c>
-      <c r="C52" s="79" t="s">
-        <v>110</v>
+      <c r="C52" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="79" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="G52" s="64">
         <f>1-0.0001</f>
@@ -2266,24 +2246,24 @@
         <f>1+0.0001</f>
         <v>1.0001</v>
       </c>
-      <c r="I52" s="109"/>
-      <c r="J52" s="103"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="99"/>
       <c r="K52" s="57"/>
       <c r="L52" s="56"/>
       <c r="M52" s="56"/>
       <c r="N52" s="57"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="80"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="80"/>
+        <v>52</v>
+      </c>
+      <c r="F53" s="90"/>
       <c r="G53" s="64">
         <f>1-0.0017</f>
         <v>0.99829999999999997</v>
@@ -2292,8 +2272,8 @@
         <f>1+0.0017</f>
         <v>1.0017</v>
       </c>
-      <c r="I53" s="109"/>
-      <c r="J53" s="103"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="99"/>
       <c r="K53" s="57"/>
       <c r="L53" s="56"/>
       <c r="M53" s="56"/>
@@ -2314,24 +2294,24 @@
       <c r="N54" s="57"/>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="91" t="s">
+      <c r="A55" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="92"/>
-      <c r="G55" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="115"/>
+      <c r="B55" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="77"/>
+      <c r="G55" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="87"/>
       <c r="I55" s="59"/>
       <c r="J55" s="57"/>
       <c r="K55" s="57"/>
@@ -2340,17 +2320,17 @@
       <c r="N55" s="57"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="94"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I56" s="59"/>
       <c r="J56" s="57"/>
@@ -2360,23 +2340,23 @@
       <c r="N56" s="57"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="101">
+      <c r="A57" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="89">
         <v>10</v>
       </c>
-      <c r="C57" s="79" t="s">
-        <v>110</v>
+      <c r="C57" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="79" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="G57" s="75">
         <f>10-0.009</f>
@@ -2386,24 +2366,24 @@
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
-      <c r="I57" s="102"/>
-      <c r="J57" s="103"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="99"/>
       <c r="K57" s="57"/>
       <c r="L57" s="56"/>
       <c r="M57" s="56"/>
       <c r="N57" s="57"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="101"/>
+        <v>54</v>
+      </c>
+      <c r="F58" s="89"/>
       <c r="G58" s="65">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2412,24 +2392,24 @@
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
-      <c r="I58" s="102"/>
-      <c r="J58" s="103"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="99"/>
       <c r="K58" s="57"/>
       <c r="L58" s="56"/>
       <c r="M58" s="56"/>
       <c r="N58" s="57"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="101"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="F59" s="101"/>
+        <v>55</v>
+      </c>
+      <c r="F59" s="89"/>
       <c r="G59" s="65">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
@@ -2438,28 +2418,28 @@
         <f>10+0.017</f>
         <v>10.016999999999999</v>
       </c>
-      <c r="I59" s="102"/>
-      <c r="J59" s="103"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="57"/>
       <c r="L59" s="56"/>
       <c r="M59" s="56"/>
       <c r="N59" s="57"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="79">
+      <c r="A60" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="88">
         <v>100</v>
       </c>
-      <c r="C60" s="101"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E60" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="101"/>
+        <v>56</v>
+      </c>
+      <c r="F60" s="89"/>
       <c r="G60" s="16">
         <f>100-0.09</f>
         <v>99.91</v>
@@ -2468,24 +2448,24 @@
         <f>100+0.09</f>
         <v>100.09</v>
       </c>
-      <c r="I60" s="102"/>
-      <c r="J60" s="103"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="99"/>
       <c r="K60" s="57"/>
       <c r="L60" s="56"/>
       <c r="M60" s="56"/>
       <c r="N60" s="57"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="101"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="101"/>
+        <v>57</v>
+      </c>
+      <c r="F61" s="89"/>
       <c r="G61" s="16">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2494,28 +2474,28 @@
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
-      <c r="I61" s="102"/>
-      <c r="J61" s="103"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="99"/>
       <c r="K61" s="57"/>
       <c r="L61" s="56"/>
       <c r="M61" s="56"/>
       <c r="N61" s="57"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="79">
+      <c r="A62" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="88">
         <v>750</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E62" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="101"/>
+        <v>58</v>
+      </c>
+      <c r="F62" s="89"/>
       <c r="G62" s="65">
         <f>750-0.625</f>
         <v>749.375</v>
@@ -2524,24 +2504,24 @@
         <f>750+0.625</f>
         <v>750.625</v>
       </c>
-      <c r="I62" s="102"/>
-      <c r="J62" s="103"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="99"/>
       <c r="K62" s="57"/>
       <c r="L62" s="56"/>
       <c r="M62" s="56"/>
       <c r="N62" s="58"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E63" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="80"/>
+        <v>59</v>
+      </c>
+      <c r="F63" s="90"/>
       <c r="G63" s="65">
         <f>750-1.275</f>
         <v>748.72500000000002</v>
@@ -2550,8 +2530,8 @@
         <f>750+1.275</f>
         <v>751.27499999999998</v>
       </c>
-      <c r="I63" s="102"/>
-      <c r="J63" s="103"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="99"/>
       <c r="K63" s="57"/>
       <c r="L63" s="56"/>
       <c r="M63" s="56"/>
@@ -2567,7 +2547,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -2576,50 +2556,50 @@
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="91" t="s">
+      <c r="A66" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="92"/>
-      <c r="F66" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" s="115"/>
+      <c r="B66" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="77"/>
+      <c r="D66" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="77"/>
+      <c r="F66" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="87"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="94"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="79"/>
       <c r="F67" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B68" s="39">
         <v>10</v>
       </c>
-      <c r="C68" s="89" t="s">
-        <v>107</v>
+      <c r="C68" s="80" t="s">
+        <v>102</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="110" t="s">
-        <v>107</v>
+        <v>60</v>
+      </c>
+      <c r="E68" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="F68" s="65">
         <f>10-0.007</f>
@@ -2632,16 +2612,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B69" s="39">
         <v>100</v>
       </c>
-      <c r="C69" s="90"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="111"/>
+        <v>61</v>
+      </c>
+      <c r="E69" s="93"/>
       <c r="F69" s="65">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2653,19 +2633,19 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" s="39">
         <v>1</v>
       </c>
-      <c r="C70" s="89" t="s">
-        <v>108</v>
+      <c r="C70" s="80" t="s">
+        <v>103</v>
       </c>
       <c r="D70" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="110" t="s">
-        <v>108</v>
+        <v>62</v>
+      </c>
+      <c r="E70" s="92" t="s">
+        <v>103</v>
       </c>
       <c r="F70" s="64">
         <f>1-0.0011</f>
@@ -2678,16 +2658,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B71" s="39">
         <v>2</v>
       </c>
-      <c r="C71" s="90"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" s="111"/>
+        <v>63</v>
+      </c>
+      <c r="E71" s="93"/>
       <c r="F71" s="65">
         <f>2-0.003</f>
         <v>1.9970000000000001</v>
@@ -2707,7 +2687,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="19"/>
@@ -2716,64 +2696,64 @@
       <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="91" t="s">
+      <c r="A74" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G74" s="115"/>
-      <c r="I74" s="108"/>
-      <c r="J74" s="108"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="108"/>
-      <c r="M74" s="108"/>
-      <c r="N74" s="108"/>
+      <c r="B74" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="77"/>
+      <c r="F74" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="87"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="97"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="94"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G75" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="108"/>
-      <c r="J75" s="108"/>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="108"/>
+        <v>124</v>
+      </c>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="97"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76" s="49">
         <v>1</v>
       </c>
-      <c r="C76" s="116" t="s">
-        <v>16</v>
+      <c r="C76" s="96" t="s">
+        <v>11</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="110" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="E76" s="92" t="s">
+        <v>103</v>
       </c>
       <c r="F76" s="64">
         <f>1-0.0014</f>
@@ -2785,23 +2765,23 @@
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="102"/>
+      <c r="K76" s="98"/>
       <c r="L76" s="56"/>
       <c r="M76" s="56"/>
       <c r="N76" s="22"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B77" s="49">
         <v>2</v>
       </c>
-      <c r="C77" s="116"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="111"/>
+        <v>65</v>
+      </c>
+      <c r="E77" s="93"/>
       <c r="F77" s="64">
         <f>2-0.0048</f>
         <v>1.9952000000000001</v>
@@ -2812,7 +2792,7 @@
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="102"/>
+      <c r="K77" s="98"/>
       <c r="L77" s="56"/>
       <c r="M77" s="56"/>
       <c r="N77" s="22"/>
@@ -2827,7 +2807,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -2836,63 +2816,63 @@
       <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="91" t="s">
+      <c r="A80" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="F80" s="92"/>
-      <c r="G80" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="H80" s="115"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="108"/>
+      <c r="B80" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="77"/>
+      <c r="E80" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="77"/>
+      <c r="G80" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="87"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="76"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="94"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="79"/>
       <c r="G81" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H81" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I81" s="108"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="108"/>
+        <v>124</v>
+      </c>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="97"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C82" s="28">
         <v>100</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E82" s="66" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F82" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G82" s="61">
         <f>100-0.1</f>
@@ -2908,22 +2888,22 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C83" s="28">
         <v>100</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E83" s="66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F83" s="55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G83" s="16">
         <f>100-0.01</f>
@@ -2947,7 +2927,7 @@
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -2960,7 +2940,7 @@
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -2972,50 +2952,50 @@
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="91" t="s">
+      <c r="A87" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="92"/>
-      <c r="F87" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" s="115"/>
+      <c r="B87" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="77"/>
+      <c r="D87" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="77"/>
+      <c r="F87" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G87" s="87"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="94"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B89" s="28">
         <v>100</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F89" s="65">
         <f>100-0.014</f>
@@ -3028,19 +3008,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B90" s="28">
         <v>1</v>
       </c>
-      <c r="C90" s="89" t="s">
-        <v>103</v>
+      <c r="C90" s="80" t="s">
+        <v>98</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E90" s="89" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="E90" s="80" t="s">
+        <v>98</v>
       </c>
       <c r="F90" s="64">
         <f>1-0.0001</f>
@@ -3053,16 +3033,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B91" s="28">
         <v>10</v>
       </c>
-      <c r="C91" s="95"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="95"/>
+        <v>70</v>
+      </c>
+      <c r="E91" s="82"/>
       <c r="F91" s="64">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
@@ -3074,16 +3054,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B92" s="28">
         <v>100</v>
       </c>
-      <c r="C92" s="90"/>
+      <c r="C92" s="81"/>
       <c r="D92" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E92" s="90"/>
+        <v>71</v>
+      </c>
+      <c r="E92" s="81"/>
       <c r="F92" s="65">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
@@ -3103,7 +3083,7 @@
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3115,50 +3095,50 @@
       <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="91" t="s">
+      <c r="A95" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="92"/>
-      <c r="F95" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" s="115"/>
+      <c r="B95" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="77"/>
+      <c r="D95" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="77"/>
+      <c r="F95" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G95" s="87"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="76"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="94"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="79"/>
       <c r="F96" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G96" s="60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B97" s="28">
         <v>1</v>
       </c>
-      <c r="C97" s="89" t="s">
-        <v>104</v>
+      <c r="C97" s="80" t="s">
+        <v>99</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E97" s="89" t="s">
-        <v>104</v>
+        <v>72</v>
+      </c>
+      <c r="E97" s="80" t="s">
+        <v>99</v>
       </c>
       <c r="F97" s="70">
         <f>1-0.00011</f>
@@ -3171,16 +3151,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B98" s="28">
         <v>10</v>
       </c>
-      <c r="C98" s="95"/>
+      <c r="C98" s="82"/>
       <c r="D98" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="95"/>
+        <v>73</v>
+      </c>
+      <c r="E98" s="82"/>
       <c r="F98" s="64">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -3192,16 +3172,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B99" s="28">
         <v>100</v>
       </c>
-      <c r="C99" s="90"/>
+      <c r="C99" s="81"/>
       <c r="D99" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="90"/>
+        <v>74</v>
+      </c>
+      <c r="E99" s="81"/>
       <c r="F99" s="16">
         <f>100-0.81</f>
         <v>99.19</v>
@@ -3220,95 +3200,83 @@
       <c r="F100" s="22"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="77"/>
+      <c r="A103" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="110"/>
       <c r="C103" s="36"/>
       <c r="D103" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="88"/>
+        <v>9</v>
+      </c>
+      <c r="E103" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="112"/>
       <c r="G103" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H103" s="38"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="77"/>
-      <c r="C105" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" s="86"/>
+      <c r="A105" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="110"/>
+      <c r="C105" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="F57:F63"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D95:E96"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="B95:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="D87:E88"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="I57:I59"/>
     <mergeCell ref="J57:J59"/>
     <mergeCell ref="I60:I61"/>
@@ -3333,54 +3301,66 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B87:C88"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D95:E96"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="B95:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="D87:E88"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="F57:F63"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="G47:H47"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34401A.xlsx
+++ b/Shablon/34401A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -372,9 +372,6 @@
     <t>_customer</t>
   </si>
   <si>
-    <t>Протокол поверки №</t>
-  </si>
-  <si>
     <t>Установленное значение, А</t>
   </si>
   <si>
@@ -502,7 +499,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +609,11 @@
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -801,9 +803,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1022,6 +1025,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,55 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1107,6 +1107,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,9 +1129,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1432,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:B99"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1462,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -1481,40 +1485,41 @@
       <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="A4" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="96" t="str">
+        <f>"Протокол поверки № 10/"&amp;C101&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1527,11 +1532,11 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="39" t="s">
         <v>79</v>
       </c>
@@ -1543,11 +1548,11 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="43" t="s">
         <v>34</v>
       </c>
@@ -1557,11 +1562,11 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -1569,11 +1574,11 @@
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="44" t="s">
         <v>91</v>
       </c>
@@ -1583,11 +1588,11 @@
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="43" t="s">
         <v>92</v>
       </c>
@@ -1597,11 +1602,11 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="45" t="s">
         <v>87</v>
       </c>
@@ -1611,11 +1616,11 @@
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="39" t="s">
         <v>86</v>
       </c>
@@ -1639,95 +1644,95 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="78" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="78" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="77" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="78" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="77" t="s">
+      <c r="E21" s="93"/>
+      <c r="F21" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="77" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="77" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,49 +1803,49 @@
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="87"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="106"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
       <c r="F32" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="12">
         <v>100</v>
       </c>
-      <c r="C33" s="84" t="s">
-        <v>107</v>
+      <c r="C33" s="80" t="s">
+        <v>106</v>
       </c>
       <c r="D33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="84" t="s">
-        <v>107</v>
+      <c r="E33" s="80" t="s">
+        <v>106</v>
       </c>
       <c r="F33" s="58">
         <f>100-0.0085</f>
@@ -1856,11 +1861,11 @@
       <c r="B34" s="12">
         <v>-100</v>
       </c>
-      <c r="C34" s="85"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="58">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
@@ -1872,19 +1877,19 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="84" t="s">
-        <v>108</v>
+      <c r="C35" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="D35" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="65">
         <f>1-0.000047</f>
@@ -1900,7 +1905,7 @@
       <c r="B36" s="12">
         <v>-1</v>
       </c>
-      <c r="C36" s="90"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="60" t="s">
         <v>44</v>
       </c>
@@ -1916,12 +1921,12 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="12">
         <v>10</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="60" t="s">
         <v>45</v>
       </c>
@@ -1940,7 +1945,7 @@
       <c r="B38" s="12">
         <v>-10</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="60" t="s">
         <v>46</v>
       </c>
@@ -1956,12 +1961,12 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="12">
         <v>100</v>
       </c>
-      <c r="C39" s="90"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="60" t="s">
         <v>47</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="B40" s="12">
         <v>-100</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="86"/>
       <c r="D40" s="60" t="s">
         <v>48</v>
       </c>
@@ -1995,13 +2000,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="100" t="s">
-        <v>114</v>
+      <c r="A41" s="99" t="s">
+        <v>113</v>
       </c>
       <c r="B41" s="12">
         <v>1000</v>
       </c>
-      <c r="C41" s="90"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="60" t="s">
         <v>49</v>
       </c>
@@ -2016,11 +2021,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="12">
         <v>-1000</v>
       </c>
-      <c r="C42" s="85"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="61" t="s">
         <v>50</v>
       </c>
@@ -2048,47 +2053,47 @@
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="87"/>
+        <v>108</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="83"/>
       <c r="D45" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="87"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="106"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="72"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="54" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
-        <v>110</v>
+      <c r="A47" s="87" t="s">
+        <v>109</v>
       </c>
       <c r="B47" s="48">
         <v>10</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>14</v>
@@ -2097,7 +2102,7 @@
         <v>51</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G47" s="59">
         <f>10-0.046</f>
@@ -2109,18 +2114,18 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
+      <c r="A48" s="88"/>
       <c r="B48" s="74">
         <v>100</v>
       </c>
-      <c r="C48" s="96"/>
+      <c r="C48" s="104"/>
       <c r="D48" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="96"/>
+      <c r="F48" s="104"/>
       <c r="G48" s="68">
         <f>100-0.1</f>
         <v>99.9</v>
@@ -2131,7 +2136,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
       <c r="D49" s="48" t="s">
@@ -2151,14 +2156,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="95">
+      <c r="A50" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="91">
         <v>1</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="48" t="s">
         <v>14</v>
@@ -2167,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50" s="58">
         <f>1-0.0001</f>
@@ -2179,8 +2184,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="95"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="75"/>
       <c r="D51" s="48" t="s">
         <v>16</v>
@@ -2208,47 +2213,47 @@
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="87"/>
+        <v>108</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="83"/>
       <c r="D53" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="87"/>
+      <c r="E53" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="83"/>
       <c r="G53" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="106"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="72"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="72"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="54" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="96">
+      <c r="A55" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="104">
         <v>10</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>15</v>
@@ -2257,7 +2262,7 @@
         <v>56</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="69">
         <f>10-0.009</f>
@@ -2269,16 +2274,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="96"/>
+      <c r="F56" s="104"/>
       <c r="G56" s="59">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2289,16 +2294,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="75"/>
-      <c r="C57" s="96"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="96"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="59">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
@@ -2309,20 +2314,20 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="91" t="s">
-        <v>113</v>
+      <c r="A58" s="87" t="s">
+        <v>112</v>
       </c>
       <c r="B58" s="74">
         <v>100</v>
       </c>
-      <c r="C58" s="96"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="96"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="13">
         <f>100-0.09</f>
         <v>99.91</v>
@@ -2333,16 +2338,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="75"/>
-      <c r="C59" s="96"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="96"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="13">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2353,20 +2358,20 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
-        <v>115</v>
+      <c r="A60" s="87" t="s">
+        <v>114</v>
       </c>
       <c r="B60" s="74">
         <v>750</v>
       </c>
-      <c r="C60" s="96"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="96"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="59">
         <f>750-0.625</f>
         <v>749.375</v>
@@ -2377,7 +2382,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
       <c r="D61" s="48" t="s">
@@ -2416,49 +2421,49 @@
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="87"/>
+      <c r="E64" s="83"/>
       <c r="F64" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G64" s="106"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="G65" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="36">
         <v>10</v>
       </c>
-      <c r="C66" s="84" t="s">
-        <v>105</v>
+      <c r="C66" s="80" t="s">
+        <v>104</v>
       </c>
       <c r="D66" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="101" t="s">
-        <v>105</v>
+      <c r="E66" s="100" t="s">
+        <v>104</v>
       </c>
       <c r="F66" s="59">
         <f>10-0.007</f>
@@ -2471,16 +2476,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="36">
         <v>100</v>
       </c>
-      <c r="C67" s="85"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="102"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="59">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2492,19 +2497,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="36">
         <v>1</v>
       </c>
-      <c r="C68" s="84" t="s">
-        <v>106</v>
+      <c r="C68" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="101" t="s">
-        <v>106</v>
+      <c r="E68" s="100" t="s">
+        <v>105</v>
       </c>
       <c r="F68" s="58">
         <f>1-0.0011</f>
@@ -2517,16 +2522,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="36">
         <v>2</v>
       </c>
-      <c r="C69" s="85"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="102"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="59">
         <f>2-0.003</f>
         <v>1.9970000000000001</v>
@@ -2556,20 +2561,20 @@
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="87"/>
+      <c r="D72" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="83"/>
       <c r="F72" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" s="106"/>
     </row>
@@ -2577,18 +2582,18 @@
       <c r="A73" s="72"/>
       <c r="B73" s="73"/>
       <c r="C73" s="72"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="89"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="85"/>
       <c r="F73" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="G73" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="46">
         <v>1</v>
@@ -2599,8 +2604,8 @@
       <c r="D74" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="101" t="s">
-        <v>106</v>
+      <c r="E74" s="100" t="s">
+        <v>105</v>
       </c>
       <c r="F74" s="58">
         <f>1-0.0014</f>
@@ -2613,7 +2618,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="46">
         <v>2</v>
@@ -2622,7 +2627,7 @@
       <c r="D75" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="102"/>
+      <c r="E75" s="101"/>
       <c r="F75" s="58">
         <f>2-0.0048</f>
         <v>1.9952000000000001</v>
@@ -2652,56 +2657,56 @@
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="83"/>
+      <c r="E78" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="F78" s="87"/>
+      <c r="F78" s="83"/>
       <c r="G78" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H78" s="106"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="72"/>
       <c r="B79" s="73"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="89"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="85"/>
       <c r="G79" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="25">
         <v>100</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" s="60" t="s">
         <v>69</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G80" s="55">
         <f>100-0.1</f>
@@ -2714,22 +2719,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="25">
         <v>100</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G81" s="13">
         <f>100-0.01</f>
@@ -2774,49 +2779,49 @@
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="83"/>
+      <c r="D85" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="87"/>
-      <c r="D85" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="87"/>
+      <c r="E85" s="83"/>
       <c r="F85" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G85" s="106"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="89"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="G86" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" s="25">
         <v>100</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" s="60" t="s">
         <v>71</v>
       </c>
       <c r="E87" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="59">
         <f>100-0.014</f>
@@ -2829,19 +2834,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="25">
         <v>1</v>
       </c>
-      <c r="C88" s="84" t="s">
-        <v>101</v>
+      <c r="C88" s="80" t="s">
+        <v>100</v>
       </c>
       <c r="D88" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E88" s="84" t="s">
-        <v>101</v>
+      <c r="E88" s="80" t="s">
+        <v>100</v>
       </c>
       <c r="F88" s="58">
         <f>1-0.0001</f>
@@ -2854,16 +2859,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="25">
         <v>10</v>
       </c>
-      <c r="C89" s="90"/>
+      <c r="C89" s="86"/>
       <c r="D89" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="90"/>
+      <c r="E89" s="86"/>
       <c r="F89" s="58">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
@@ -2875,16 +2880,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="25">
         <v>100</v>
       </c>
-      <c r="C90" s="85"/>
+      <c r="C90" s="81"/>
       <c r="D90" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="85"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="59">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
@@ -2916,49 +2921,49 @@
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="83"/>
+      <c r="D93" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="87"/>
+      <c r="E93" s="83"/>
       <c r="F93" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G93" s="106"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="72"/>
-      <c r="B94" s="103"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="89"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G94" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B95" s="25">
         <v>1</v>
       </c>
-      <c r="C95" s="84" t="s">
-        <v>102</v>
+      <c r="C95" s="80" t="s">
+        <v>101</v>
       </c>
       <c r="D95" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="84" t="s">
-        <v>102</v>
+      <c r="E95" s="80" t="s">
+        <v>101</v>
       </c>
       <c r="F95" s="64">
         <f>1-0.00011</f>
@@ -2971,16 +2976,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="25">
         <v>10</v>
       </c>
-      <c r="C96" s="90"/>
+      <c r="C96" s="86"/>
       <c r="D96" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="90"/>
+      <c r="E96" s="86"/>
       <c r="F96" s="58">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -2992,16 +2997,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="25">
         <v>100</v>
       </c>
-      <c r="C97" s="85"/>
+      <c r="C97" s="81"/>
       <c r="D97" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="85"/>
+      <c r="E97" s="81"/>
       <c r="F97" s="13">
         <f>100-0.81</f>
         <v>99.19</v>
@@ -3021,11 +3026,11 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3040,10 +3045,10 @@
       <c r="D100" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="82" t="s">
+      <c r="E100" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="83"/>
+      <c r="F100" s="79"/>
       <c r="G100" s="11" t="s">
         <v>13</v>
       </c>
@@ -3054,10 +3059,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="71"/>
-      <c r="C101" s="81" t="s">
+      <c r="C101" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="81"/>
+      <c r="D101" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="107">

--- a/Shablon/34401A.xlsx
+++ b/Shablon/34401A.xlsx
@@ -499,7 +499,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,20 +518,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -545,13 +531,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -603,17 +582,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -806,42 +782,55 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,284 +838,231 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1436,1695 +1372,1646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="76" t="str">
         <f>"Протокол поверки № 10/"&amp;C101&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="44" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="42"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="43" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="92" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="93" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="92" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="93" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="92" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="92" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="92" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="7"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="82" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="105" t="s">
+      <c r="E31" s="61"/>
+      <c r="F31" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="106"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="54" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="51">
         <v>100</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="42">
         <f>100-0.0085</f>
         <v>99.991500000000002</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="42">
         <f>100+0.0085</f>
         <v>100.0085</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="12">
+      <c r="A34" s="66"/>
+      <c r="B34" s="51">
         <v>-100</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="58">
+      <c r="E34" s="55"/>
+      <c r="F34" s="42">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="42">
         <f>-100+0.0085</f>
         <v>-99.991500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="51">
         <v>1</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="108" t="s">
+      <c r="E35" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="45">
         <f>1-0.000047</f>
         <v>0.99995299999999998</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="45">
         <f>1+0.000047</f>
         <v>1.0000469999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="12">
+      <c r="A36" s="66"/>
+      <c r="B36" s="51">
         <v>-1</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="109"/>
-      <c r="F36" s="64">
+      <c r="E36" s="58"/>
+      <c r="F36" s="44">
         <f>-1-0.000047</f>
         <v>-1.0000469999999999</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="45">
         <f>-1+0.000047</f>
         <v>-0.99995299999999998</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="51">
         <v>10</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="60" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="109"/>
-      <c r="F37" s="58">
+      <c r="E37" s="58"/>
+      <c r="F37" s="42">
         <f>10-0.0004</f>
         <v>9.9995999999999992</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="42">
         <f>10+0.0004</f>
         <v>10.000400000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="12">
+      <c r="A38" s="66"/>
+      <c r="B38" s="51">
         <v>-10</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="58">
+      <c r="E38" s="58"/>
+      <c r="F38" s="42">
         <f>-10-0.0004</f>
         <v>-10.000400000000001</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="42">
         <f>-10+0.0004</f>
         <v>-9.9995999999999992</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="51">
         <v>100</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="58">
+      <c r="E39" s="58"/>
+      <c r="F39" s="42">
         <f>100-0.0051</f>
         <v>99.994900000000001</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="42">
         <f>100+0.0051</f>
         <v>100.0051</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="12">
+      <c r="A40" s="66"/>
+      <c r="B40" s="51">
         <v>-100</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="56"/>
+      <c r="D40" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="58">
+      <c r="E40" s="58"/>
+      <c r="F40" s="42">
         <f>-100-0.0051</f>
         <v>-100.0051</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="42">
         <f>-100+0.0051</f>
         <v>-99.994900000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="51">
         <v>1000</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="59">
+      <c r="E41" s="58"/>
+      <c r="F41" s="43">
         <f>1000-0.055</f>
         <v>999.94500000000005</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="43">
         <f>1000+0.055</f>
         <v>1000.0549999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="12">
+      <c r="A42" s="72"/>
+      <c r="B42" s="51">
         <v>-1000</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="110"/>
-      <c r="F42" s="59">
+      <c r="E42" s="59"/>
+      <c r="F42" s="43">
         <f>-1000-0.055</f>
         <v>-1000.0549999999999</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="43">
         <f>-1000+0.055</f>
         <v>-999.94500000000005</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="83"/>
-      <c r="G45" s="105" t="s">
+      <c r="F45" s="61"/>
+      <c r="G45" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="106"/>
+      <c r="H45" s="65"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="54" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="53">
         <v>10</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="43">
         <f>10-0.046</f>
         <v>9.9540000000000006</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="43">
         <f>10+0.046</f>
         <v>10.045999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="74">
+      <c r="A48" s="73"/>
+      <c r="B48" s="75">
         <v>100</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="48" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="104"/>
-      <c r="G48" s="68">
+      <c r="F48" s="73"/>
+      <c r="G48" s="51">
         <f>100-0.1</f>
         <v>99.9</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="51">
         <f>100+0.1</f>
         <v>100.1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="48" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="75"/>
-      <c r="G49" s="13">
+      <c r="F49" s="74"/>
+      <c r="G49" s="10">
         <f>100-0.17</f>
         <v>99.83</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="10">
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="91">
+      <c r="B50" s="71">
         <v>1</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="42">
         <f>1-0.0001</f>
         <v>0.99990000000000001</v>
       </c>
-      <c r="H50" s="58">
+      <c r="H50" s="42">
         <f>1+0.0001</f>
         <v>1.0001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="48" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="58">
+      <c r="F51" s="74"/>
+      <c r="G51" s="42">
         <f>1-0.0017</f>
         <v>0.99829999999999997</v>
       </c>
-      <c r="H51" s="58">
+      <c r="H51" s="42">
         <f>1+0.0017</f>
         <v>1.0017</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="61"/>
+      <c r="D53" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="82" t="s">
+      <c r="E53" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="105" t="s">
+      <c r="F53" s="61"/>
+      <c r="G53" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="106"/>
+      <c r="H53" s="65"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="54" t="s">
+      <c r="A54" s="66"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="104">
+      <c r="B55" s="73">
         <v>10</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="69">
+      <c r="G55" s="52">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="H55" s="56">
+      <c r="H55" s="52">
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="48" t="s">
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="62" t="s">
+      <c r="E56" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="104"/>
-      <c r="G56" s="59">
+      <c r="F56" s="73"/>
+      <c r="G56" s="43">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="53">
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="48" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="62" t="s">
+      <c r="E57" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="104"/>
-      <c r="G57" s="59">
+      <c r="F57" s="73"/>
+      <c r="G57" s="43">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="53">
         <f>10+0.017</f>
         <v>10.016999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="74">
+      <c r="B58" s="75">
         <v>100</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="48" t="s">
+      <c r="C58" s="73"/>
+      <c r="D58" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="13">
+      <c r="F58" s="73"/>
+      <c r="G58" s="10">
         <f>100-0.09</f>
         <v>99.91</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H58" s="53">
         <f>100+0.09</f>
         <v>100.09</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="48" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E59" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="104"/>
-      <c r="G59" s="13">
+      <c r="F59" s="73"/>
+      <c r="G59" s="10">
         <f>100-0.17</f>
         <v>99.83</v>
       </c>
-      <c r="H59" s="57">
+      <c r="H59" s="53">
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="74">
+      <c r="B60" s="75">
         <v>750</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="48" t="s">
+      <c r="C60" s="73"/>
+      <c r="D60" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="104"/>
-      <c r="G60" s="59">
+      <c r="F60" s="73"/>
+      <c r="G60" s="43">
         <f>750-0.625</f>
         <v>749.375</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="43">
         <f>750+0.625</f>
         <v>750.625</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="48" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="75"/>
-      <c r="G61" s="59">
+      <c r="F61" s="74"/>
+      <c r="G61" s="43">
         <f>750-1.275</f>
         <v>748.72500000000002</v>
       </c>
-      <c r="H61" s="57">
+      <c r="H61" s="53">
         <f>750+1.275</f>
         <v>751.27499999999998</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="82" t="s">
+      <c r="C64" s="61"/>
+      <c r="D64" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="105" t="s">
+      <c r="E64" s="61"/>
+      <c r="F64" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="106"/>
+      <c r="G64" s="65"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="54" t="s">
+      <c r="A65" s="66"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G65" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="53">
         <v>10</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="100" t="s">
+      <c r="E66" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="59">
+      <c r="F66" s="43">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="43">
         <f>10+0.007</f>
         <v>10.007</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="53">
         <v>100</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="62" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="101"/>
-      <c r="F67" s="59">
+      <c r="E67" s="68"/>
+      <c r="F67" s="43">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
       </c>
-      <c r="G67" s="59">
+      <c r="G67" s="43">
         <f>100+0.055</f>
         <v>100.05500000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="53">
         <v>1</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="100" t="s">
+      <c r="E68" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="42">
         <f>1-0.0011</f>
         <v>0.99890000000000001</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="42">
         <f>1+0.0011</f>
         <v>1.0011000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="53">
         <v>2</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="62" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="59">
+      <c r="E69" s="68"/>
+      <c r="F69" s="43">
         <f>2-0.003</f>
         <v>1.9970000000000001</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G69" s="43">
         <f>2+0.003</f>
         <v>2.0030000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="82" t="s">
+      <c r="D72" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="105" t="s">
+      <c r="E72" s="61"/>
+      <c r="F72" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="106"/>
+      <c r="G72" s="65"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="54" t="s">
+      <c r="A73" s="66"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G73" s="54" t="s">
+      <c r="G73" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="46">
+      <c r="B74" s="53">
         <v>1</v>
       </c>
-      <c r="C74" s="107" t="s">
+      <c r="C74" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="100" t="s">
+      <c r="E74" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="42">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="G74" s="58">
+      <c r="G74" s="42">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="53">
         <v>2</v>
       </c>
-      <c r="C75" s="107"/>
-      <c r="D75" s="62" t="s">
+      <c r="C75" s="71"/>
+      <c r="D75" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="101"/>
-      <c r="F75" s="58">
+      <c r="E75" s="68"/>
+      <c r="F75" s="42">
         <f>2-0.0048</f>
         <v>1.9952000000000001</v>
       </c>
-      <c r="G75" s="58">
+      <c r="G75" s="42">
         <f>2+0.0048</f>
         <v>2.0047999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="19"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="19"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="83"/>
-      <c r="E78" s="82" t="s">
+      <c r="D78" s="61"/>
+      <c r="E78" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="83"/>
-      <c r="G78" s="105" t="s">
+      <c r="F78" s="61"/>
+      <c r="G78" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H78" s="106"/>
+      <c r="H78" s="65"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="54" t="s">
+      <c r="A79" s="66"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H79" s="54" t="s">
+      <c r="H79" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="25">
+      <c r="C80" s="22">
         <v>100</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="60" t="s">
+      <c r="E80" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="55">
+      <c r="G80" s="51">
         <f>100-0.1</f>
         <v>99.9</v>
       </c>
-      <c r="H80" s="67">
+      <c r="H80" s="47">
         <f>100+0.1</f>
         <v>100.1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="22">
         <v>100</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="50" t="s">
+      <c r="F81" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="10">
         <f>100-0.01</f>
         <v>99.99</v>
       </c>
-      <c r="H81" s="66">
+      <c r="H81" s="46">
         <f>100+0.01</f>
         <v>100.01</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="19"/>
-    </row>
-    <row r="83" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="82" t="s">
+      <c r="B85" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="82" t="s">
+      <c r="C85" s="61"/>
+      <c r="D85" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="83"/>
-      <c r="F85" s="105" t="s">
+      <c r="E85" s="61"/>
+      <c r="F85" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="106"/>
+      <c r="G85" s="65"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="54" t="s">
+      <c r="A86" s="66"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G86" s="54" t="s">
+      <c r="G86" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="22">
         <v>100</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="60" t="s">
+      <c r="D87" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="43">
         <f>100-0.014</f>
         <v>99.986000000000004</v>
       </c>
-      <c r="G87" s="59">
+      <c r="G87" s="43">
         <f>100+0.014</f>
         <v>100.014</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="25">
+      <c r="B88" s="22">
         <v>1</v>
       </c>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="60" t="s">
+      <c r="D88" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="E88" s="80" t="s">
+      <c r="E88" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="42">
         <f>1-0.0001</f>
         <v>0.99990000000000001</v>
       </c>
-      <c r="G88" s="58">
+      <c r="G88" s="42">
         <f>1+0.0001</f>
         <v>1.0001</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="25">
+      <c r="B89" s="22">
         <v>10</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="60" t="s">
+      <c r="C89" s="56"/>
+      <c r="D89" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="86"/>
-      <c r="F89" s="58">
+      <c r="E89" s="56"/>
+      <c r="F89" s="42">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
       </c>
-      <c r="G89" s="58">
+      <c r="G89" s="42">
         <f>10+0.0011</f>
         <v>10.001099999999999</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="25">
+      <c r="B90" s="22">
         <v>100</v>
       </c>
-      <c r="C90" s="81"/>
-      <c r="D90" s="60" t="s">
+      <c r="C90" s="55"/>
+      <c r="D90" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="81"/>
-      <c r="F90" s="59">
+      <c r="E90" s="55"/>
+      <c r="F90" s="43">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
       </c>
-      <c r="G90" s="59">
+      <c r="G90" s="43">
         <f>100+0.011</f>
         <v>100.011</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A92" s="31" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="82" t="s">
+      <c r="C93" s="61"/>
+      <c r="D93" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="105" t="s">
+      <c r="E93" s="61"/>
+      <c r="F93" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G93" s="106"/>
+      <c r="G93" s="65"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="72"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="54" t="s">
+      <c r="A94" s="66"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G94" s="54" t="s">
+      <c r="G94" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="25">
+      <c r="B95" s="22">
         <v>1</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="60" t="s">
+      <c r="D95" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="80" t="s">
+      <c r="E95" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="44">
         <f>1-0.00011</f>
         <v>0.99988999999999995</v>
       </c>
-      <c r="G95" s="64">
+      <c r="G95" s="44">
         <f>1+0.00011</f>
         <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="25">
+      <c r="B96" s="22">
         <v>10</v>
       </c>
-      <c r="C96" s="86"/>
-      <c r="D96" s="60" t="s">
+      <c r="C96" s="56"/>
+      <c r="D96" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="86"/>
-      <c r="F96" s="58">
+      <c r="E96" s="56"/>
+      <c r="F96" s="42">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
       </c>
-      <c r="G96" s="58">
+      <c r="G96" s="42">
         <f>10+0.0041</f>
         <v>10.004099999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="22">
         <v>100</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="60" t="s">
+      <c r="C97" s="55"/>
+      <c r="D97" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="81"/>
-      <c r="F97" s="13">
+      <c r="E97" s="55"/>
+      <c r="F97" s="10">
         <f>100-0.81</f>
         <v>99.19</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="10">
         <f>100+0.81</f>
         <v>100.81</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="19"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="70" t="s">
+      <c r="B99" s="81"/>
+      <c r="C99" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="19"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="16"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="71"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="34" t="s">
+      <c r="B100" s="81"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="78" t="s">
+      <c r="E100" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="79"/>
-      <c r="G100" s="11" t="s">
+      <c r="F100" s="83"/>
+      <c r="G100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="35"/>
+      <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="77" t="s">
+      <c r="B101" s="81"/>
+      <c r="C101" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="77"/>
+      <c r="D101" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="E78:F79"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B85:C86"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
@@ -3149,30 +3036,65 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B31:C32"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B85:C86"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="E78:F79"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.61458333333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
